--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/CURE/2.0/accreditamento-checklist_V8.1.3-submit.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/CURE/2.0/accreditamento-checklist_V8.1.3-submit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GLucciBaldassari.GUILUCCIBAW\Documents\Sviluppi\DSM_WSO2\FSE20\Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{397B2042-B4D3-4DD8-8057-E8EDFB03FCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00334858-9281-4C82-B88F-16C448D0CAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22890" yWindow="-1080" windowWidth="23190" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24765" yWindow="15" windowWidth="20460" windowHeight="11490" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$36</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
     </ext>
@@ -63,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="191">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -788,12 +799,6 @@
     <t>subject_application_version:2.0</t>
   </si>
   <si>
-    <t>Si è verificato un errore di rete.</t>
-  </si>
-  <si>
-    <t>L'utente, avvisato del disservizio, riproverà in un secondo momento.</t>
-  </si>
-  <si>
     <t>Il campo su cui è richiesto l'intervento viene sempre valorizzato dall'applicativo con un valore tra quelli ammessi.</t>
   </si>
   <si>
@@ -855,6 +860,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.80.3.1.4.4.4540b0759011eb7db51fd0f46d528cf261d7c5754a669516771040e037fc5f3b.759a3d9635^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Si è verificato un errore nell'invio del referto al servizio di validazione. Riprovare in un secondo momento.</t>
+  </si>
+  <si>
+    <t>L'utente, avvisato visivamente del disservizio, viene invitato a riprovare in un secondo momento. Il referto creato non viene mostrato all'utente, viene scartato e prodotto nuovamente al tentativo di invio successivo. Gli errori vengono comunque tracciati a livello di log.</t>
   </si>
 </sst>
 </file>
@@ -3748,10 +3759,10 @@
   <dimension ref="A1:T653"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="S39" sqref="S39"/>
+      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3764,8 +3775,10 @@
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
     <col min="11" max="11" width="82.42578125" customWidth="1"/>
-    <col min="12" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="27.140625" customWidth="1"/>
+    <col min="12" max="13" width="36.42578125" customWidth="1"/>
+    <col min="14" max="14" width="45.5703125" customWidth="1"/>
+    <col min="15" max="15" width="36.42578125" customWidth="1"/>
+    <col min="16" max="16" width="39.140625" customWidth="1"/>
     <col min="17" max="17" width="33.140625" customWidth="1"/>
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="20" width="31.85546875" customWidth="1"/>
@@ -4029,7 +4042,7 @@
         <v>163</v>
       </c>
       <c r="K10" s="25" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
@@ -4067,7 +4080,7 @@
         <v>163</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
@@ -4101,7 +4114,9 @@
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
+      <c r="J12" s="25" t="s">
+        <v>60</v>
+      </c>
       <c r="K12" s="25"/>
       <c r="L12" s="25" t="s">
         <v>60</v>
@@ -4110,13 +4125,13 @@
         <v>60</v>
       </c>
       <c r="N12" s="25" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="O12" s="25" t="s">
         <v>163</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="Q12" s="25"/>
       <c r="R12" s="26" t="s">
@@ -4151,7 +4166,7 @@
         <v>163</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25"/>
@@ -4189,7 +4204,7 @@
         <v>163</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -4227,7 +4242,7 @@
         <v>163</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -4265,7 +4280,7 @@
         <v>163</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -4303,7 +4318,7 @@
         <v>163</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -4341,7 +4356,7 @@
         <v>163</v>
       </c>
       <c r="K18" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -4379,7 +4394,7 @@
         <v>163</v>
       </c>
       <c r="K19" s="25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -4417,7 +4432,7 @@
         <v>163</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L20" s="25"/>
       <c r="M20" s="25"/>
@@ -4455,7 +4470,7 @@
         <v>163</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="L21" s="25"/>
       <c r="M21" s="25"/>
@@ -4493,7 +4508,7 @@
         <v>163</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L22" s="25"/>
       <c r="M22" s="25"/>
@@ -4531,7 +4546,7 @@
         <v>163</v>
       </c>
       <c r="K23" s="25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L23" s="25"/>
       <c r="M23" s="25"/>
@@ -4569,7 +4584,7 @@
         <v>163</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L24" s="25"/>
       <c r="M24" s="25"/>
@@ -4607,7 +4622,7 @@
         <v>163</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L25" s="25"/>
       <c r="M25" s="25"/>
@@ -4645,7 +4660,7 @@
         <v>163</v>
       </c>
       <c r="K26" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L26" s="25"/>
       <c r="M26" s="25"/>
@@ -4683,7 +4698,7 @@
         <v>163</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L27" s="25"/>
       <c r="M27" s="25"/>
@@ -4721,7 +4736,7 @@
         <v>163</v>
       </c>
       <c r="K28" s="25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L28" s="25"/>
       <c r="M28" s="25"/>
@@ -4759,7 +4774,7 @@
         <v>163</v>
       </c>
       <c r="K29" s="25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L29" s="25"/>
       <c r="M29" s="25"/>
@@ -4797,7 +4812,7 @@
         <v>163</v>
       </c>
       <c r="K30" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
@@ -4835,7 +4850,7 @@
         <v>163</v>
       </c>
       <c r="K31" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L31" s="25"/>
       <c r="M31" s="25"/>
@@ -4873,7 +4888,7 @@
         <v>163</v>
       </c>
       <c r="K32" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
@@ -4911,7 +4926,7 @@
         <v>163</v>
       </c>
       <c r="K33" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L33" s="25"/>
       <c r="M33" s="25"/>
@@ -4949,7 +4964,7 @@
         <v>163</v>
       </c>
       <c r="K34" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
@@ -4987,7 +5002,7 @@
         <v>163</v>
       </c>
       <c r="K35" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L35" s="25"/>
       <c r="M35" s="25"/>
@@ -5021,13 +5036,13 @@
         <v>45373</v>
       </c>
       <c r="G36" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="I36" s="24" t="s">
         <v>188</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="J36" s="25" t="s">
         <v>60</v>
